--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>950675.6937010296</v>
+        <v>948240.0567773229</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801308</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>228.0656025585486</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>77.57026134932991</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>299.5215209693907</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>181.8563148768969</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728599</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>194.2284918540845</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>226.1528017278035</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439145</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>84.21645548405965</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662300359</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>51.07590192255348</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238035</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035266</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>32.59167154948578</v>
+        <v>136.6856111842609</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146344</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503568</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>69.94319885314854</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696321</v>
+        <v>167.2468210986245</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834054</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>176.5196562849269</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>38.6121309665534</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>62.18842302760174</v>
+        <v>121.8000472740354</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="33">
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.24347904696321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699772</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323831</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833959</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.5207962406033</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016428</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695408</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833393</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016487</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>223.8290352905944</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2047.583838282732</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4401,16 +4401,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>462.6853918125577</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408147</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>644.3338566427974</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>644.3338566427974</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.124011696102</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.124011696102</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.858313089352</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.858313089352</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997116</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736036</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760224</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.3899067494191</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>479.4537238215122</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>332.8675597612654</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1641.273695033814</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1386.589206827927</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.172036790967</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>869.1824858929492</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.3899067494191</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955552</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.072590015141</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.80689140839</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>752.0186388101461</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019674</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>712.6441443736238</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>543.7079614457169</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.426274415171</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>933.436723517154</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.6441443736238</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2091.516838319891</v>
+        <v>1535.258832689352</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.554321379479</v>
+        <v>1166.296315748941</v>
       </c>
       <c r="D11" t="n">
-        <v>1364.288622772729</v>
+        <v>808.0306171421898</v>
       </c>
       <c r="E11" t="n">
-        <v>978.5003701744845</v>
+        <v>422.2423645439458</v>
       </c>
       <c r="F11" t="n">
-        <v>567.514465384877</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>152.9390197145239</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386829</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234589</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234589</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234589</v>
+        <v>3622.786021971442</v>
       </c>
       <c r="U11" t="n">
-        <v>3925.553311234589</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3594.490423891018</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>3241.721768620904</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2868.256010359824</v>
+        <v>2311.998004729286</v>
       </c>
       <c r="Y11" t="n">
-        <v>2478.116678384013</v>
+        <v>1921.858672753474</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469177</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469177</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520011</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.11264789589</v>
+        <v>1337.658805224961</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1878.967112576028</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>833.2723584834563</v>
+        <v>385.5135230760944</v>
       </c>
       <c r="C13" t="n">
-        <v>664.3361755555494</v>
+        <v>216.5773401481875</v>
       </c>
       <c r="D13" t="n">
-        <v>631.4152952025337</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="E13" t="n">
-        <v>483.5022016201406</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222302</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457701</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888913</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
         <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014273</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.102739014273</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.012032454561</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1532.327544248674</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1242.910374211713</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>1014.920823313696</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>1014.920823313696</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,13 +5261,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5309,19 +5309,19 @@
         <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.700680385037</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635722</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>392.9821521356653</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>322.3324563244041</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>322.3324563244041</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>964.359379037342</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938119</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>194.800778399831</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5671,13 +5671,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="20">
@@ -5744,52 +5744,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5920,7 +5920,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
@@ -5999,40 +5999,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327702</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048633</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133955</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947405</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741518</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704557</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.19518280654</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179088</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C28" t="n">
-        <v>699.7311804011399</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048569</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925211</v>
+        <v>194.8007783998301</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101281</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122178</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630036</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="38">
@@ -7169,55 +7169,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400669</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257307</v>
+        <v>344.91741781216</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133949</v>
+        <v>194.8007783998244</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310019</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797186</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138368</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703066</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908935</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187078</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>238.4928147581238</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114107</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>116.0238014687266</v>
+        <v>11.92986183395149</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>78.67227416506381</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537621</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844822863</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462226</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>110.003342051659</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.402303949491753e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>105.0583980710261</v>
+        <v>45.44677382459244</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016424</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823513</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844822958</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462229</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823524</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016475</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>62.35543909864982</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896666.1660918917</v>
+        <v>896666.1660918923</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>975414.6052658837</v>
+        <v>975414.6052658838</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282537</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282537</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>980774.7989282538</v>
+        <v>980774.7989282537</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>980774.7989282538</v>
+        <v>980774.7989282539</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253557</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253558</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.9734253558</v>
-      </c>
       <c r="E2" t="n">
-        <v>405380.839779504</v>
+        <v>405380.8397795042</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="J2" t="n">
         <v>443930.6298295035</v>
-      </c>
-      <c r="I2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="N2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185152</v>
+        <v>143114.1392185159</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051387</v>
+        <v>166521.3471051381</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557898</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.328551153</v>
+        <v>37377.32855115341</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848931</v>
+        <v>43782.40655848909</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818179</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
         <v>12897.74318952439</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>86093.72216214713</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1077289.611781812</v>
       </c>
       <c r="C6" t="n">
+        <v>251455.1339457807</v>
+      </c>
+      <c r="D6" t="n">
         <v>251455.1339457809</v>
       </c>
-      <c r="D6" t="n">
-        <v>251455.1339457808</v>
-      </c>
       <c r="E6" t="n">
-        <v>163275.2352093174</v>
+        <v>163065.270965472</v>
       </c>
       <c r="F6" t="n">
-        <v>161820.0672563349</v>
+        <v>161774.16226077</v>
       </c>
       <c r="G6" t="n">
-        <v>318643.9996231869</v>
+        <v>318609.2616977513</v>
       </c>
       <c r="H6" t="n">
-        <v>329811.2358587659</v>
+        <v>329776.4979333301</v>
       </c>
       <c r="I6" t="n">
-        <v>329811.2358587658</v>
+        <v>329776.49793333</v>
       </c>
       <c r="J6" t="n">
-        <v>112280.0334614884</v>
+        <v>112245.2955360528</v>
       </c>
       <c r="K6" t="n">
-        <v>329811.2358587658</v>
+        <v>329776.4979333301</v>
       </c>
       <c r="L6" t="n">
-        <v>329811.2358587658</v>
+        <v>329776.4979333302</v>
       </c>
       <c r="M6" t="n">
-        <v>292433.9073076129</v>
+        <v>292399.1693821766</v>
       </c>
       <c r="N6" t="n">
-        <v>286028.8293002766</v>
+        <v>285994.0913748411</v>
       </c>
       <c r="O6" t="n">
-        <v>326787.9378815413</v>
+        <v>326753.1999561054</v>
       </c>
       <c r="P6" t="n">
-        <v>329811.2358587657</v>
+        <v>329776.49793333</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086472</v>
+        <v>981.3883278086481</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012571</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218304</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288148</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063545</v>
+        <v>149.9868724063555</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364165</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063545</v>
+        <v>149.9868724063555</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173586</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063545</v>
+        <v>149.9868724063555</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173588</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364165</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426699</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>141.6654981199204</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>89.67655974929792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>65.75137080161687</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>225.0197308648145</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370926</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>91.98334635152835</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>180.7232440139079</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230216</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>64.3990175341527</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.261213355974178e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-9.226662362065036e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>5.343281372915953e-12</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29718,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>8.997827608620364e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-7.011744673613704e-13</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.790567694115452e-12</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.74074681980264e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.221647908461828e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-6.159093390701584e-13</v>
+        <v>-1.768693873567345e-12</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485647</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508989</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726053</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216968</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857421</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898383</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294404</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615134</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895584</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596473</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256412</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845326</v>
+        <v>583.7591506492925</v>
       </c>
       <c r="N12" t="n">
-        <v>656.2170074201573</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431806</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205468</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071844</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697584</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
         <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
         <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570605</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826899</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -32072,22 +32072,22 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>139.4267020936821</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>428.3656332688745</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32099,7 +32099,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,7 +32321,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614911</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32783,25 +32783,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>253.6713445157994</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276248</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584694</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932474</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077536</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062438</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151089</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156587</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.563441845767</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>441.6251167272741</v>
       </c>
       <c r="N12" t="n">
-        <v>524.875295336824</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987362</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211629</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670183</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765378</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998349</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>12.58907542701537</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>297.0239211855412</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35747,7 +35747,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,7 +35969,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394727</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>122.3296324324661</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
